--- a/Part_2_tables/match_on_url_df_grouped.xlsx
+++ b/Part_2_tables/match_on_url_df_grouped.xlsx
@@ -450,7 +450,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
     </row>
   </sheetData>

--- a/Part_2_tables/match_on_url_df_grouped.xlsx
+++ b/Part_2_tables/match_on_url_df_grouped.xlsx
@@ -450,7 +450,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>100</v>
+        <v>10104</v>
       </c>
     </row>
   </sheetData>

--- a/Part_2_tables/match_on_url_df_grouped.xlsx
+++ b/Part_2_tables/match_on_url_df_grouped.xlsx
@@ -450,7 +450,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>10104</v>
+        <v>9994</v>
       </c>
     </row>
   </sheetData>

--- a/Part_2_tables/match_on_url_df_grouped.xlsx
+++ b/Part_2_tables/match_on_url_df_grouped.xlsx
@@ -450,7 +450,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>9994</v>
+        <v>9988</v>
       </c>
     </row>
   </sheetData>
